--- a/Off_White/off_white_compare.xlsx
+++ b/Off_White/off_white_compare.xlsx
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">

--- a/Off_White/off_white_compare.xlsx
+++ b/Off_White/off_white_compare.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\py\GitHub\Python\Off_White\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA7BE4-CBFA-483D-9819-903D5E0E437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,60 +46,60 @@
     <t>Off White Arthur Havana</t>
   </si>
   <si>
+    <t>Off White Arthur Black</t>
+  </si>
+  <si>
     <t>Off White Baltimore Silver Dark</t>
   </si>
   <si>
-    <t>Off White Arthur Black</t>
+    <t>Off White Catalina Fuchsia</t>
   </si>
   <si>
     <t>Off White Cady Black</t>
   </si>
   <si>
+    <t>Off White Francisco Black</t>
+  </si>
+  <si>
     <t>Off White Catalina Black</t>
   </si>
   <si>
-    <t>Off White Catalina Fuchsia</t>
-  </si>
-  <si>
-    <t>Off White Francisco Black</t>
-  </si>
-  <si>
     <t>Off White Francisco Blue</t>
   </si>
   <si>
+    <t>Off White Leonardo White</t>
+  </si>
+  <si>
     <t>Off White Leonardo Black</t>
   </si>
   <si>
-    <t>Off White Leonardo White</t>
-  </si>
-  <si>
     <t>Off White Leonardo Havana</t>
   </si>
   <si>
+    <t>Off White Lucio Havana</t>
+  </si>
+  <si>
+    <t>Off White Savannah Havana</t>
+  </si>
+  <si>
+    <t>Off White Seattle Multicolor</t>
+  </si>
+  <si>
     <t>Off White Seattle Black Multicolor</t>
   </si>
   <si>
-    <t>Off White Lucio Havana</t>
-  </si>
-  <si>
-    <t>Off White Savannah Havana</t>
-  </si>
-  <si>
-    <t>Off White Seattle Multicolor</t>
-  </si>
-  <si>
     <t>Off White Virgil Black/Blue</t>
   </si>
   <si>
     <t>Off White Virgil Black</t>
   </si>
   <si>
+    <t>Off White Zurich Black</t>
+  </si>
+  <si>
     <t>Off White Volcanite Black</t>
   </si>
   <si>
-    <t>Off White Zurich Black</t>
-  </si>
-  <si>
     <t>0M</t>
   </si>
   <si>
@@ -106,65 +112,65 @@
     <t>ARTHUR 26455</t>
   </si>
   <si>
+    <t>ARTHUR 11007</t>
+  </si>
+  <si>
     <t>BALTIMORE 17207</t>
   </si>
   <si>
-    <t>ARTHUR 11007</t>
+    <t>CATALINA 16807</t>
   </si>
   <si>
     <t>CADY 11007</t>
   </si>
   <si>
+    <t>FRANCISCO 11007</t>
+  </si>
+  <si>
     <t>CATALINA 11007</t>
   </si>
   <si>
-    <t>CATALINA 16807</t>
-  </si>
-  <si>
-    <t>FRANCISCO 11007</t>
-  </si>
-  <si>
     <t>FRANCISCO 14507</t>
   </si>
   <si>
+    <t>LEONARDO 10107</t>
+  </si>
+  <si>
     <t>LEONARDO 11007</t>
   </si>
   <si>
-    <t>LEONARDO 10107</t>
-  </si>
-  <si>
     <t>LEONARDO 16055</t>
   </si>
   <si>
+    <t>LUCIO 16055</t>
+  </si>
+  <si>
+    <t>SAVANNAH 16055</t>
+  </si>
+  <si>
+    <t>SEATTLE 11764</t>
+  </si>
+  <si>
     <t>SEATTLE 11007</t>
   </si>
   <si>
-    <t>LUCIO 16055</t>
-  </si>
-  <si>
-    <t>SAVANNAH 16055</t>
-  </si>
-  <si>
-    <t>SEATTLE 11764</t>
-  </si>
-  <si>
     <t>VIRGIL 21045</t>
   </si>
   <si>
     <t>VIRGIL 11007</t>
   </si>
   <si>
+    <t>ZURICH 11007</t>
+  </si>
+  <si>
     <t>VOLCANITE 11007</t>
-  </si>
-  <si>
-    <t>ZURICH 11007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,17 +229,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +285,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -305,6 +319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,9 +354,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,14 +530,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -581,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,15 +624,15 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8051594080369</v>
+        <v>8052865781299</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -621,12 +647,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8052865781299</v>
+        <v>8051594080369</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -638,38 +664,38 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8052865781251</v>
+        <v>8051594080055</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>8052865781268</v>
+        <v>8052865781251</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -681,12 +707,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>8051594080055</v>
+        <v>8052865854290</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -701,12 +727,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>8052865854290</v>
+        <v>8052865781268</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -715,13 +741,13 @@
         <v>35</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -741,15 +767,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8051594257587</v>
+        <v>8051594080062</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -761,15 +787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>8051594080062</v>
+        <v>8051594257587</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -781,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -801,12 +827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>8051594080215</v>
+        <v>8052865854405</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -815,64 +841,64 @@
         <v>40</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
+        <v>8051594079806</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>8051594080239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>8051594080215</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>8052865854405</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>8051594079806</v>
-      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -881,15 +907,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>8051594080239</v>
+        <v>8051594080215</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -901,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -921,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -941,12 +967,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>8051594376875</v>
+        <v>8051594030036</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -961,12 +987,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>8051594030036</v>
+        <v>8051594376875</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>

--- a/Off_White/off_white_compare.xlsx
+++ b/Off_White/off_white_compare.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\py\GitHub\Python\Off_White\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA7BE4-CBFA-483D-9819-903D5E0E437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Barcode</t>
   </si>
@@ -40,64 +34,82 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Off White Arthur Havana</t>
+  </si>
+  <si>
+    <t>Off White Arthur Black</t>
+  </si>
+  <si>
+    <t>Off White Baltimore Silver Dark</t>
+  </si>
+  <si>
     <t>Off White Artemisia White</t>
   </si>
   <si>
-    <t>Off White Arthur Havana</t>
-  </si>
-  <si>
-    <t>Off White Arthur Black</t>
-  </si>
-  <si>
-    <t>Off White Baltimore Silver Dark</t>
+    <t>Off White Cady Black</t>
+  </si>
+  <si>
+    <t>Off White Catalina Black</t>
   </si>
   <si>
     <t>Off White Catalina Fuchsia</t>
   </si>
   <si>
-    <t>Off White Cady Black</t>
-  </si>
-  <si>
     <t>Off White Francisco Black</t>
   </si>
   <si>
-    <t>Off White Catalina Black</t>
+    <t>Off White Leonardo White</t>
   </si>
   <si>
     <t>Off White Francisco Blue</t>
   </si>
   <si>
-    <t>Off White Leonardo White</t>
-  </si>
-  <si>
     <t>Off White Leonardo Black</t>
   </si>
   <si>
     <t>Off White Leonardo Havana</t>
   </si>
   <si>
+    <t>Off White Savannah Havana</t>
+  </si>
+  <si>
     <t>Off White Lucio Havana</t>
   </si>
   <si>
-    <t>Off White Savannah Havana</t>
-  </si>
-  <si>
     <t>Off White Seattle Multicolor</t>
   </si>
   <si>
     <t>Off White Seattle Black Multicolor</t>
   </si>
   <si>
+    <t>Off White Virgil Black</t>
+  </si>
+  <si>
     <t>Off White Virgil Black/Blue</t>
   </si>
   <si>
-    <t>Off White Virgil Black</t>
+    <t>Off White Volcanite Black</t>
   </si>
   <si>
     <t>Off White Zurich Black</t>
   </si>
   <si>
-    <t>Off White Volcanite Black</t>
+    <t>Optical Style 28 Havana</t>
+  </si>
+  <si>
+    <t>Optical Style 21 Havana</t>
+  </si>
+  <si>
+    <t>Optical Style 21 Black</t>
+  </si>
+  <si>
+    <t>Optical Style 29 Black</t>
+  </si>
+  <si>
+    <t>Optical Style 29 White</t>
+  </si>
+  <si>
+    <t>Optical Style 29 Havana</t>
   </si>
   <si>
     <t>0M</t>
@@ -106,71 +118,89 @@
     <t>D</t>
   </si>
   <si>
+    <t>ARTHUR 26455</t>
+  </si>
+  <si>
+    <t>ARTHUR 11007</t>
+  </si>
+  <si>
+    <t>BALTIMORE 17207</t>
+  </si>
+  <si>
     <t>ARTEMISIA 10207</t>
   </si>
   <si>
-    <t>ARTHUR 26455</t>
-  </si>
-  <si>
-    <t>ARTHUR 11007</t>
-  </si>
-  <si>
-    <t>BALTIMORE 17207</t>
+    <t>CADY 11007</t>
+  </si>
+  <si>
+    <t>CATALINA 11007</t>
   </si>
   <si>
     <t>CATALINA 16807</t>
   </si>
   <si>
-    <t>CADY 11007</t>
-  </si>
-  <si>
     <t>FRANCISCO 11007</t>
   </si>
   <si>
-    <t>CATALINA 11007</t>
+    <t>LEONARDO 10107</t>
   </si>
   <si>
     <t>FRANCISCO 14507</t>
   </si>
   <si>
-    <t>LEONARDO 10107</t>
-  </si>
-  <si>
     <t>LEONARDO 11007</t>
   </si>
   <si>
     <t>LEONARDO 16055</t>
   </si>
   <si>
+    <t>SAVANNAH 16055</t>
+  </si>
+  <si>
     <t>LUCIO 16055</t>
   </si>
   <si>
-    <t>SAVANNAH 16055</t>
-  </si>
-  <si>
     <t>SEATTLE 11764</t>
   </si>
   <si>
     <t>SEATTLE 11007</t>
   </si>
   <si>
+    <t>VIRGIL 11007</t>
+  </si>
+  <si>
     <t>VIRGIL 21045</t>
   </si>
   <si>
-    <t>VIRGIL 11007</t>
+    <t>VOLCANITE 11007</t>
   </si>
   <si>
     <t>ZURICH 11007</t>
   </si>
   <si>
-    <t>VOLCANITE 11007</t>
+    <t>STYLE 28 16000</t>
+  </si>
+  <si>
+    <t>STYLE 21 16000</t>
+  </si>
+  <si>
+    <t>STYLE 21 11000</t>
+  </si>
+  <si>
+    <t>STYLE 29 11000</t>
+  </si>
+  <si>
+    <t>STYLE 29 10100</t>
+  </si>
+  <si>
+    <t>STYLE 29 16000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,25 +259,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -319,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -354,10 +375,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,24 +550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -567,18 +577,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>8052865854535</v>
+        <v>8052865804370</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -587,18 +597,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>8052865804370</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -607,18 +617,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8052865804370</v>
+        <v>8052865781299</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -627,18 +637,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8052865781299</v>
+        <v>8051594080369</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -647,18 +657,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8051594080369</v>
+        <v>8052865854535</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -667,38 +677,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8051594080055</v>
+        <v>8052865781251</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>8052865781251</v>
+        <v>8052865781268</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -707,18 +717,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>8052865854290</v>
+        <v>8051594080055</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -727,38 +737,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>8052865781268</v>
+        <v>8052865854290</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>8052865854313</v>
+        <v>8051594080062</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -767,18 +777,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8051594080062</v>
+        <v>8052865854313</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -787,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -795,10 +805,10 @@
         <v>8051594257587</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -807,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -815,10 +825,10 @@
         <v>8051594080079</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -827,18 +837,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>8052865854405</v>
+        <v>8051594079806</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -847,18 +857,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>8051594079806</v>
+        <v>8052865854405</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -867,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -875,10 +885,10 @@
         <v>8051594080239</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -887,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -895,10 +905,10 @@
         <v>8051594080215</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -907,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -915,10 +925,10 @@
         <v>8051594080215</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -927,58 +937,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>8052865804356</v>
+        <v>8052865781282</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>8052865781282</v>
+        <v>8052865804356</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>8051594030036</v>
+        <v>8051594376875</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -987,23 +997,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>8051594376875</v>
+        <v>8051594030036</v>
       </c>
       <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="B24">
+        <v>8051594080543</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>8051594080543</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>8051594032214</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>8051594032214</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>8051594032207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>8051594079998</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8051594079998</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8051594079974</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8051594080000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
